--- a/影视工作/南宁项目财务/锦绣南宁支出帐目.xlsx
+++ b/影视工作/南宁项目财务/锦绣南宁支出帐目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="216">
   <si>
     <t>刘宁宁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1407,6 +1407,18 @@
   </si>
   <si>
     <t>金楠交通0527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租车公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王韧/陈柏成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1762,11 +1774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1832,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1844,7 +1856,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1920,57 +1932,57 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="C9">
-        <v>5216.3599999999997</v>
+        <v>7800</v>
       </c>
       <c r="D9">
-        <v>352</v>
+        <v>8800</v>
       </c>
       <c r="E9">
-        <v>2283.8200000000002</v>
+        <v>12000</v>
       </c>
       <c r="F9">
-        <v>2107.6999999999998</v>
+        <v>4200</v>
       </c>
       <c r="G9">
-        <v>4818.5</v>
+        <v>7200</v>
       </c>
       <c r="H9">
-        <v>465</v>
-      </c>
-      <c r="I9">
-        <f>SUM(C9:H9)</f>
-        <v>15243.380000000001</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5216.3599999999997</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="E10">
-        <v>1032.2</v>
+        <v>2283.8200000000002</v>
       </c>
       <c r="F10">
-        <v>690</v>
+        <v>2107.6999999999998</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4818.5</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>465</v>
+      </c>
+      <c r="I10">
+        <f>SUM(C10:H10)</f>
+        <v>15243.380000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1978,8 +1990,11 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11">
+        <v>1032.2</v>
+      </c>
       <c r="F11">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1988,146 +2003,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:H13" si="0">SUM(C7:C11)</f>
-        <v>6544.36</v>
-      </c>
-      <c r="D13">
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="0">SUM(C7:C12)</f>
+        <v>14344.36</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>3149</v>
-      </c>
-      <c r="E13">
+        <v>11949</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>10560.140000000001</v>
-      </c>
-      <c r="F13">
+        <v>22560.14</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>9851.7000000000007</v>
-      </c>
-      <c r="G13">
+        <v>14051.7</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
-        <v>14799.1</v>
-      </c>
-      <c r="H13">
+        <v>21999.1</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>2309</v>
-      </c>
-      <c r="I13">
-        <f>C13+D13+E13+F13+H13</f>
-        <v>32414.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+        <v>7109</v>
+      </c>
+      <c r="I14">
+        <f>C14+D14+E14+F14+H14</f>
+        <v>70014.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17">
-        <v>4320</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="I18">
+        <v>4320</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I19">
-        <v>800</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="I20">
-        <v>3126.3</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I21">
-        <v>10548.92</v>
+        <v>3126.3</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>10548.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>2305</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="I23">
-        <f>SUM(I17:I22)</f>
+      <c r="B24" s="1"/>
+      <c r="I24">
+        <f>SUM(I18:I23)</f>
         <v>21100.22</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="1"/>
-    </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>636</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:9">
+      <c r="B27" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="1"/>
-    </row>
     <row r="28" spans="1:9">
-      <c r="A28" t="s">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="I28">
-        <f>SUM(I25:I27)</f>
+      <c r="B29" s="1"/>
+      <c r="I29">
+        <f>SUM(I26:I28)</f>
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="1"/>
-    </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I30">
-        <f>I5+I13+I23+I25</f>
-        <v>100370.42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1"/>
+      <c r="I31">
+        <f>I5+I14+I24+I26</f>
+        <v>137970.41999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4431,7 +4466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z33" sqref="Z33"/>
     </sheetView>
